--- a/public/resources/sv.xlsx
+++ b/public/resources/sv.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>3</v>
